--- a/PartsList.xlsx
+++ b/PartsList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\Research2019\LegoDigitalSystemsEngineering\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38C9B5EF-BB96-40CC-8D26-C0BAE1D01004}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1539B869-2AC4-449C-8BF1-8F606AC00E9B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{11466D1D-74DB-4F75-8A03-124A9B61795C}"/>
+    <workbookView xWindow="4428" yWindow="3396" windowWidth="17280" windowHeight="8964" xr2:uid="{11466D1D-74DB-4F75-8A03-124A9B61795C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -650,7 +650,7 @@
   <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/PartsList.xlsx
+++ b/PartsList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\Research2019\LegoDigitalSystemsEngineering\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1539B869-2AC4-449C-8BF1-8F606AC00E9B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5E90FB0-0729-4D4E-AE6F-D6DC916AF610}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4428" yWindow="3396" windowWidth="17280" windowHeight="8964" xr2:uid="{11466D1D-74DB-4F75-8A03-124A9B61795C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{11466D1D-74DB-4F75-8A03-124A9B61795C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -243,16 +243,16 @@
     <t>3068b</t>
   </si>
   <si>
-    <t>Rim</t>
-  </si>
-  <si>
-    <t>Tire</t>
-  </si>
-  <si>
-    <t>TYRE NORMAL WIDE Ø14.6 X 9</t>
-  </si>
-  <si>
-    <t>RIM WIDE W.HOLE Ø8.1 X 9</t>
+    <t>30027bc01</t>
+  </si>
+  <si>
+    <t>30028 &amp; 74967</t>
+  </si>
+  <si>
+    <t>TYRE NORMAL WIDE Ø14.6 X 9 &amp; RIM WIDE W.HOLE Ø8.1 X 9</t>
+  </si>
+  <si>
+    <t>Tire &amp; Rim</t>
   </si>
 </sst>
 </file>
@@ -309,7 +309,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -327,11 +327,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -647,10 +644,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66BCEB14-E6E7-462C-B06B-A21FFBBB9DE2}">
-  <dimension ref="A1:G35"/>
+  <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -745,231 +742,231 @@
       </c>
       <c r="G4" s="4"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="D5" s="3">
-        <v>30028</v>
-      </c>
-      <c r="E5" s="3">
-        <v>30028</v>
+      <c r="E5" s="3" t="s">
+        <v>70</v>
       </c>
       <c r="F5" s="3">
-        <v>0.23</v>
+        <v>0.31</v>
       </c>
       <c r="G5" s="4"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="D6" s="8">
-        <v>74967</v>
+        <v>8</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="3">
+        <v>2926</v>
       </c>
       <c r="E6" s="3">
-        <v>74967</v>
+        <v>2926</v>
       </c>
       <c r="F6" s="3">
-        <v>0.08</v>
+        <v>0.21</v>
       </c>
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D7" s="3">
-        <v>2926</v>
+        <v>61409</v>
       </c>
       <c r="E7" s="3">
-        <v>2926</v>
+        <v>61409</v>
       </c>
       <c r="F7" s="3">
-        <v>0.21</v>
+        <v>0.08</v>
       </c>
       <c r="G7" s="4"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D8" s="3">
-        <v>61409</v>
+        <v>50950</v>
       </c>
       <c r="E8" s="3">
-        <v>61409</v>
+        <v>50950</v>
       </c>
       <c r="F8" s="3">
-        <v>0.08</v>
+        <v>0.13</v>
       </c>
       <c r="G8" s="4"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D9" s="3">
-        <v>50950</v>
+        <v>30602</v>
       </c>
       <c r="E9" s="3">
-        <v>50950</v>
+        <v>30602</v>
       </c>
       <c r="F9" s="3">
-        <v>0.13</v>
-      </c>
-      <c r="G9" s="4"/>
+        <v>0.21</v>
+      </c>
+      <c r="G9" s="2"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D10" s="3">
-        <v>30602</v>
-      </c>
-      <c r="E10" s="3">
-        <v>30602</v>
+        <v>10201</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>62</v>
       </c>
       <c r="F10" s="3">
-        <v>0.21</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="G10" s="2"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D11" s="3">
-        <v>10201</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>62</v>
+        <v>21712</v>
+      </c>
+      <c r="E11" s="6">
+        <v>44728</v>
       </c>
       <c r="F11" s="3">
-        <v>0.14000000000000001</v>
+        <v>0.11</v>
       </c>
       <c r="G11" s="2"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D12" s="3">
-        <v>21712</v>
+        <v>99781</v>
       </c>
       <c r="E12" s="6">
-        <v>44728</v>
+        <v>99781</v>
       </c>
       <c r="F12" s="3">
-        <v>0.11</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="G12" s="2"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D13" s="3">
-        <v>99781</v>
-      </c>
-      <c r="E13" s="6">
-        <v>99781</v>
+        <v>87087</v>
+      </c>
+      <c r="E13" s="3">
+        <v>87087</v>
       </c>
       <c r="F13" s="3">
-        <v>0.14000000000000001</v>
+        <v>0.13</v>
       </c>
       <c r="G13" s="2"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D14" s="3">
-        <v>87087</v>
-      </c>
-      <c r="E14" s="3">
-        <v>87087</v>
+        <v>2412</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>65</v>
       </c>
       <c r="F14" s="3">
-        <v>0.13</v>
+        <v>0.06</v>
       </c>
       <c r="G14" s="2"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>24</v>
+        <v>64</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15" s="3">
-        <v>2412</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>65</v>
+        <v>98138</v>
+      </c>
+      <c r="E15" s="6">
+        <v>98138</v>
       </c>
       <c r="F15" s="3">
         <v>0.06</v>
@@ -978,20 +975,18 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>64</v>
+        <v>27</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D16" s="3">
-        <v>98138</v>
-      </c>
-      <c r="E16" s="6">
-        <v>98138</v>
-      </c>
+        <v>50746</v>
+      </c>
+      <c r="E16" s="6"/>
       <c r="F16" s="3">
         <v>0.06</v>
       </c>
@@ -999,38 +994,40 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D17" s="3">
-        <v>50746</v>
-      </c>
-      <c r="E17" s="6"/>
+        <v>3069</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>66</v>
+      </c>
       <c r="F17" s="3">
-        <v>0.06</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="G17" s="2"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D18" s="3">
-        <v>3069</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>66</v>
+        <v>2420</v>
+      </c>
+      <c r="E18" s="6">
+        <v>2420</v>
       </c>
       <c r="F18" s="3">
         <v>7.0000000000000007E-2</v>
@@ -1039,19 +1036,19 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>31</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D19" s="3">
-        <v>2420</v>
+        <v>3023</v>
       </c>
       <c r="E19" s="6">
-        <v>2420</v>
+        <v>3023</v>
       </c>
       <c r="F19" s="3">
         <v>7.0000000000000007E-2</v>
@@ -1060,208 +1057,208 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>31</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D20" s="3">
-        <v>3023</v>
+        <v>3022</v>
       </c>
       <c r="E20" s="6">
-        <v>3023</v>
+        <v>3022</v>
       </c>
       <c r="F20" s="3">
-        <v>7.0000000000000007E-2</v>
+        <v>0.11</v>
       </c>
       <c r="G20" s="2"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D21" s="3">
-        <v>3022</v>
-      </c>
-      <c r="E21" s="6">
-        <v>3022</v>
+        <v>73081</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>63</v>
       </c>
       <c r="F21" s="3">
-        <v>0.11</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="G21" s="2"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D22" s="3">
-        <v>73081</v>
-      </c>
-      <c r="E22" s="6" t="s">
-        <v>63</v>
+        <v>4079</v>
+      </c>
+      <c r="E22" s="6">
+        <v>4079</v>
       </c>
       <c r="F22" s="3">
-        <v>0.28999999999999998</v>
+        <v>0.17</v>
       </c>
       <c r="G22" s="2"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D23" s="3">
-        <v>4079</v>
+        <v>60481</v>
       </c>
       <c r="E23" s="6">
-        <v>4079</v>
+        <v>60481</v>
       </c>
       <c r="F23" s="3">
-        <v>0.17</v>
+        <v>0.13</v>
       </c>
       <c r="G23" s="2"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D24" s="3">
-        <v>60481</v>
-      </c>
-      <c r="E24" s="6">
-        <v>60481</v>
+        <v>87552</v>
+      </c>
+      <c r="E24" s="3">
+        <v>87552</v>
       </c>
       <c r="F24" s="3">
-        <v>0.13</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="G24" s="2"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D25" s="3">
-        <v>87552</v>
-      </c>
-      <c r="E25" s="3">
-        <v>87552</v>
+        <v>3245</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>67</v>
       </c>
       <c r="F25" s="3">
-        <v>0.14000000000000001</v>
+        <v>0.18</v>
       </c>
       <c r="G25" s="2"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D26" s="3">
-        <v>3245</v>
-      </c>
-      <c r="E26" s="6" t="s">
-        <v>67</v>
+        <v>93273</v>
+      </c>
+      <c r="E26" s="3">
+        <v>93273</v>
       </c>
       <c r="F26" s="3">
-        <v>0.18</v>
+        <v>0.15</v>
       </c>
       <c r="G26" s="2"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D27" s="3">
-        <v>93273</v>
-      </c>
-      <c r="E27" s="3">
-        <v>93273</v>
+        <v>2432</v>
+      </c>
+      <c r="E27" s="6">
+        <v>2432</v>
       </c>
       <c r="F27" s="3">
-        <v>0.15</v>
+        <v>0.11</v>
       </c>
       <c r="G27" s="2"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D28" s="3">
-        <v>2432</v>
+        <v>32807</v>
       </c>
       <c r="E28" s="6">
-        <v>2432</v>
+        <v>6091</v>
       </c>
       <c r="F28" s="3">
-        <v>0.11</v>
+        <v>0.13</v>
       </c>
       <c r="G28" s="2"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D29" s="3">
-        <v>32807</v>
-      </c>
-      <c r="E29" s="6">
-        <v>6091</v>
+        <v>15068</v>
+      </c>
+      <c r="E29" s="3">
+        <v>15068</v>
       </c>
       <c r="F29" s="3">
         <v>0.13</v>
@@ -1270,126 +1267,105 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D30" s="3">
-        <v>15068</v>
-      </c>
-      <c r="E30" s="3">
-        <v>15068</v>
+        <v>85984</v>
+      </c>
+      <c r="E30" s="6">
+        <v>85984</v>
       </c>
       <c r="F30" s="3">
-        <v>0.13</v>
+        <v>0.1</v>
       </c>
       <c r="G30" s="2"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>53</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D31" s="3">
-        <v>85984</v>
+        <v>2431</v>
       </c>
       <c r="E31" s="6">
-        <v>85984</v>
+        <v>2431</v>
       </c>
       <c r="F31" s="3">
-        <v>0.1</v>
+        <v>0.13</v>
       </c>
       <c r="G31" s="2"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>53</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D32" s="3">
-        <v>2431</v>
-      </c>
-      <c r="E32" s="6">
-        <v>2431</v>
+        <v>3068</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>69</v>
       </c>
       <c r="F32" s="3">
-        <v>0.13</v>
+        <v>0.08</v>
       </c>
       <c r="G32" s="2"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D33" s="3">
-        <v>3068</v>
-      </c>
-      <c r="E33" s="6" t="s">
-        <v>69</v>
+        <v>3005</v>
+      </c>
+      <c r="E33" s="6">
+        <v>3005</v>
       </c>
       <c r="F33" s="3">
-        <v>0.08</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="G33" s="2"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>57</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D34" s="3">
-        <v>3005</v>
+        <v>3004</v>
       </c>
       <c r="E34" s="6">
-        <v>3005</v>
+        <v>3004</v>
       </c>
       <c r="F34" s="3">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="G34" s="2"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A35">
-        <v>34</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D35" s="3">
-        <v>3004</v>
-      </c>
-      <c r="E35" s="6">
-        <v>3004</v>
-      </c>
-      <c r="F35" s="3">
         <v>0.11</v>
       </c>
     </row>

--- a/PartsList.xlsx
+++ b/PartsList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\Research2019\LegoDigitalSystemsEngineering\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5E90FB0-0729-4D4E-AE6F-D6DC916AF610}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D50F3C9-239C-4AB5-B520-08835C308129}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{11466D1D-74DB-4F75-8A03-124A9B61795C}"/>
+    <workbookView xWindow="4776" yWindow="3396" windowWidth="17280" windowHeight="8964" xr2:uid="{11466D1D-74DB-4F75-8A03-124A9B61795C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="76">
   <si>
     <t>Description</t>
   </si>
@@ -253,6 +253,12 @@
   </si>
   <si>
     <t>Tire &amp; Rim</t>
+  </si>
+  <si>
+    <t>Aero?</t>
+  </si>
+  <si>
+    <t>y</t>
   </si>
 </sst>
 </file>
@@ -309,7 +315,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -329,6 +335,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -647,7 +659,7 @@
   <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -658,10 +670,10 @@
     <col min="4" max="4" width="15.21875" customWidth="1"/>
     <col min="5" max="5" width="11" customWidth="1"/>
     <col min="6" max="6" width="9.5546875" customWidth="1"/>
-    <col min="7" max="7" width="10.21875" customWidth="1"/>
+    <col min="7" max="7" width="10.21875" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -677,7 +689,9 @@
       <c r="F1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="4"/>
+      <c r="G1" s="9" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2">
@@ -824,7 +838,9 @@
       <c r="F8" s="3">
         <v>0.13</v>
       </c>
-      <c r="G8" s="4"/>
+      <c r="G8" s="4" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9">
@@ -845,7 +861,9 @@
       <c r="F9" s="3">
         <v>0.21</v>
       </c>
-      <c r="G9" s="2"/>
+      <c r="G9" s="4" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10">
@@ -866,7 +884,7 @@
       <c r="F10" s="3">
         <v>0.14000000000000001</v>
       </c>
-      <c r="G10" s="2"/>
+      <c r="G10" s="4"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11">
@@ -887,7 +905,7 @@
       <c r="F11" s="3">
         <v>0.11</v>
       </c>
-      <c r="G11" s="2"/>
+      <c r="G11" s="4"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12">
@@ -908,7 +926,7 @@
       <c r="F12" s="3">
         <v>0.14000000000000001</v>
       </c>
-      <c r="G12" s="2"/>
+      <c r="G12" s="4"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13">
@@ -929,7 +947,7 @@
       <c r="F13" s="3">
         <v>0.13</v>
       </c>
-      <c r="G13" s="2"/>
+      <c r="G13" s="4"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14">
@@ -950,7 +968,7 @@
       <c r="F14" s="3">
         <v>0.06</v>
       </c>
-      <c r="G14" s="2"/>
+      <c r="G14" s="4"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15">
@@ -971,7 +989,7 @@
       <c r="F15" s="3">
         <v>0.06</v>
       </c>
-      <c r="G15" s="2"/>
+      <c r="G15" s="4"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16">
@@ -990,7 +1008,7 @@
       <c r="F16" s="3">
         <v>0.06</v>
       </c>
-      <c r="G16" s="2"/>
+      <c r="G16" s="4"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17">
@@ -1011,7 +1029,7 @@
       <c r="F17" s="3">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="G17" s="2"/>
+      <c r="G17" s="4"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18">
@@ -1032,7 +1050,7 @@
       <c r="F18" s="3">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="G18" s="2"/>
+      <c r="G18" s="4"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19">
@@ -1053,7 +1071,7 @@
       <c r="F19" s="3">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="G19" s="2"/>
+      <c r="G19" s="4"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20">
@@ -1074,7 +1092,7 @@
       <c r="F20" s="3">
         <v>0.11</v>
       </c>
-      <c r="G20" s="2"/>
+      <c r="G20" s="4"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21">
@@ -1095,7 +1113,7 @@
       <c r="F21" s="3">
         <v>0.28999999999999998</v>
       </c>
-      <c r="G21" s="2"/>
+      <c r="G21" s="4"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22">
@@ -1116,7 +1134,7 @@
       <c r="F22" s="3">
         <v>0.17</v>
       </c>
-      <c r="G22" s="2"/>
+      <c r="G22" s="4"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23">
@@ -1137,7 +1155,9 @@
       <c r="F23" s="3">
         <v>0.13</v>
       </c>
-      <c r="G23" s="2"/>
+      <c r="G23" s="4" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24">
@@ -1158,7 +1178,7 @@
       <c r="F24" s="3">
         <v>0.14000000000000001</v>
       </c>
-      <c r="G24" s="2"/>
+      <c r="G24" s="4"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25">
@@ -1179,7 +1199,7 @@
       <c r="F25" s="3">
         <v>0.18</v>
       </c>
-      <c r="G25" s="2"/>
+      <c r="G25" s="4"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26">
@@ -1200,7 +1220,9 @@
       <c r="F26" s="3">
         <v>0.15</v>
       </c>
-      <c r="G26" s="2"/>
+      <c r="G26" s="4" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27">
@@ -1221,7 +1243,7 @@
       <c r="F27" s="3">
         <v>0.11</v>
       </c>
-      <c r="G27" s="2"/>
+      <c r="G27" s="4"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28">
@@ -1242,7 +1264,9 @@
       <c r="F28" s="3">
         <v>0.13</v>
       </c>
-      <c r="G28" s="2"/>
+      <c r="G28" s="4" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29">
@@ -1263,7 +1287,9 @@
       <c r="F29" s="3">
         <v>0.13</v>
       </c>
-      <c r="G29" s="2"/>
+      <c r="G29" s="4" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30">
@@ -1284,7 +1310,9 @@
       <c r="F30" s="3">
         <v>0.1</v>
       </c>
-      <c r="G30" s="2"/>
+      <c r="G30" s="4" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31">
@@ -1305,7 +1333,7 @@
       <c r="F31" s="3">
         <v>0.13</v>
       </c>
-      <c r="G31" s="2"/>
+      <c r="G31" s="4"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32">
@@ -1326,7 +1354,7 @@
       <c r="F32" s="3">
         <v>0.08</v>
       </c>
-      <c r="G32" s="2"/>
+      <c r="G32" s="4"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33">
@@ -1347,7 +1375,7 @@
       <c r="F33" s="3">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="G33" s="2"/>
+      <c r="G33" s="4"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34">

--- a/PartsList.xlsx
+++ b/PartsList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\Research2019\LegoDigitalSystemsEngineering\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D50F3C9-239C-4AB5-B520-08835C308129}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6279E105-6BFA-448D-BB43-93B73755D6E3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4776" yWindow="3396" windowWidth="17280" windowHeight="8964" xr2:uid="{11466D1D-74DB-4F75-8A03-124A9B61795C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{11466D1D-74DB-4F75-8A03-124A9B61795C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="74">
   <si>
     <t>Description</t>
   </si>
@@ -253,12 +253,6 @@
   </si>
   <si>
     <t>Tire &amp; Rim</t>
-  </si>
-  <si>
-    <t>Aero?</t>
-  </si>
-  <si>
-    <t>y</t>
   </si>
 </sst>
 </file>
@@ -689,9 +683,7 @@
       <c r="F1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="9" t="s">
-        <v>74</v>
-      </c>
+      <c r="G1" s="9"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2">
@@ -838,9 +830,7 @@
       <c r="F8" s="3">
         <v>0.13</v>
       </c>
-      <c r="G8" s="4" t="s">
-        <v>75</v>
-      </c>
+      <c r="G8" s="4"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9">
@@ -861,9 +851,7 @@
       <c r="F9" s="3">
         <v>0.21</v>
       </c>
-      <c r="G9" s="4" t="s">
-        <v>75</v>
-      </c>
+      <c r="G9" s="4"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10">
@@ -1155,9 +1143,7 @@
       <c r="F23" s="3">
         <v>0.13</v>
       </c>
-      <c r="G23" s="4" t="s">
-        <v>75</v>
-      </c>
+      <c r="G23" s="4"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24">
@@ -1220,9 +1206,7 @@
       <c r="F26" s="3">
         <v>0.15</v>
       </c>
-      <c r="G26" s="4" t="s">
-        <v>75</v>
-      </c>
+      <c r="G26" s="4"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27">
@@ -1264,9 +1248,7 @@
       <c r="F28" s="3">
         <v>0.13</v>
       </c>
-      <c r="G28" s="4" t="s">
-        <v>75</v>
-      </c>
+      <c r="G28" s="4"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29">
@@ -1287,9 +1269,7 @@
       <c r="F29" s="3">
         <v>0.13</v>
       </c>
-      <c r="G29" s="4" t="s">
-        <v>75</v>
-      </c>
+      <c r="G29" s="4"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30">
@@ -1310,9 +1290,7 @@
       <c r="F30" s="3">
         <v>0.1</v>
       </c>
-      <c r="G30" s="4" t="s">
-        <v>75</v>
-      </c>
+      <c r="G30" s="4"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31">

--- a/PartsList.xlsx
+++ b/PartsList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\Research2019\LegoDigitalSystemsEngineering\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6279E105-6BFA-448D-BB43-93B73755D6E3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31549E1D-34F4-4AA6-ACCD-B04C2DDAB44C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{11466D1D-74DB-4F75-8A03-124A9B61795C}"/>
   </bookViews>
@@ -653,7 +653,7 @@
   <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -992,7 +992,9 @@
       <c r="D16" s="3">
         <v>50746</v>
       </c>
-      <c r="E16" s="6"/>
+      <c r="E16" s="6">
+        <v>54200</v>
+      </c>
       <c r="F16" s="3">
         <v>0.06</v>
       </c>

--- a/PartsList.xlsx
+++ b/PartsList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\Research2019\LegoDigitalSystemsEngineering\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31549E1D-34F4-4AA6-ACCD-B04C2DDAB44C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BCDA334-F426-4237-B50E-7C3AB8659EF7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{11466D1D-74DB-4F75-8A03-124A9B61795C}"/>
   </bookViews>
@@ -234,9 +234,6 @@
     <t>3069b</t>
   </si>
   <si>
-    <t>3245c</t>
-  </si>
-  <si>
     <t>LEGO Brick Name</t>
   </si>
   <si>
@@ -253,6 +250,9 @@
   </si>
   <si>
     <t>Tire &amp; Rim</t>
+  </si>
+  <si>
+    <t>3245b</t>
   </si>
 </sst>
 </file>
@@ -652,8 +652,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66BCEB14-E6E7-462C-B06B-A21FFBBB9DE2}">
   <dimension ref="A1:G34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -672,7 +672,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>60</v>
@@ -753,16 +753,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F5" s="3">
         <v>0.31</v>
@@ -1182,7 +1182,7 @@
         <v>3245</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="F25" s="3">
         <v>0.18</v>
@@ -1329,7 +1329,7 @@
         <v>3068</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F32" s="3">
         <v>0.08</v>

--- a/PartsList.xlsx
+++ b/PartsList.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\Research2019\LegoDigitalSystemsEngineering\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BCDA334-F426-4237-B50E-7C3AB8659EF7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75237CF5-5121-441B-AA20-18A7AEBB1458}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{11466D1D-74DB-4F75-8A03-124A9B61795C}"/>
+    <workbookView xWindow="384" yWindow="384" windowWidth="17280" windowHeight="8964" xr2:uid="{11466D1D-74DB-4F75-8A03-124A9B61795C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="75">
   <si>
     <t>Description</t>
   </si>
@@ -253,6 +253,9 @@
   </si>
   <si>
     <t>3245b</t>
+  </si>
+  <si>
+    <t>PLATE W. BOW 3X4X2/3 W. KNOBS</t>
   </si>
 </sst>
 </file>
@@ -650,10 +653,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66BCEB14-E6E7-462C-B06B-A21FFBBB9DE2}">
-  <dimension ref="A1:G34"/>
+  <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1377,6 +1380,26 @@
         <v>0.11</v>
       </c>
     </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>35</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C35" t="s">
+        <v>74</v>
+      </c>
+      <c r="D35">
+        <v>93604</v>
+      </c>
+      <c r="E35" s="6">
+        <v>93604</v>
+      </c>
+      <c r="F35" s="3">
+        <v>0.38</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/PartsList.xlsx
+++ b/PartsList.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\Research2019\LegoDigitalSystemsEngineering\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75237CF5-5121-441B-AA20-18A7AEBB1458}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{02703D61-3E37-44F1-8C1A-AEB0263C13DD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="384" windowWidth="17280" windowHeight="8964" xr2:uid="{11466D1D-74DB-4F75-8A03-124A9B61795C}"/>
+    <workbookView xWindow="-8316" yWindow="5988" windowWidth="17280" windowHeight="8964" xr2:uid="{11466D1D-74DB-4F75-8A03-124A9B61795C}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="PartsList" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="76">
   <si>
     <t>Description</t>
   </si>
@@ -256,6 +256,9 @@
   </si>
   <si>
     <t>PLATE W. BOW 3X4X2/3 W. KNOBS</t>
+  </si>
+  <si>
+    <t>Volume</t>
   </si>
 </sst>
 </file>
@@ -655,8 +658,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66BCEB14-E6E7-462C-B06B-A21FFBBB9DE2}">
   <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="H36" sqref="H36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -686,7 +689,9 @@
       <c r="F1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="9"/>
+      <c r="G1" s="9" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2">
@@ -707,7 +712,10 @@
       <c r="F2" s="3">
         <v>0.43</v>
       </c>
-      <c r="G2" s="4"/>
+      <c r="G2" s="4">
+        <f>9600*8</f>
+        <v>76800</v>
+      </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3">
@@ -728,7 +736,10 @@
       <c r="F3" s="3">
         <v>0.46</v>
       </c>
-      <c r="G3" s="4"/>
+      <c r="G3" s="4">
+        <f>12800*8</f>
+        <v>102400</v>
+      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4">
@@ -749,7 +760,10 @@
       <c r="F4" s="3">
         <v>0.54</v>
       </c>
-      <c r="G4" s="4"/>
+      <c r="G4" s="4">
+        <f>16000*8</f>
+        <v>128000</v>
+      </c>
     </row>
     <row r="5" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5">
@@ -770,11 +784,13 @@
       <c r="F5" s="3">
         <v>0.31</v>
       </c>
-      <c r="G5" s="4"/>
+      <c r="G5" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>8</v>
@@ -791,11 +807,13 @@
       <c r="F6" s="3">
         <v>0.21</v>
       </c>
-      <c r="G6" s="4"/>
+      <c r="G6" s="4">
+        <v>12800</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>10</v>
@@ -812,11 +830,13 @@
       <c r="F7" s="3">
         <v>0.08</v>
       </c>
-      <c r="G7" s="4"/>
+      <c r="G7" s="4">
+        <v>6400</v>
+      </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>12</v>
@@ -833,11 +853,13 @@
       <c r="F8" s="3">
         <v>0.13</v>
       </c>
-      <c r="G8" s="4"/>
+      <c r="G8" s="4">
+        <v>5</v>
+      </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>14</v>
@@ -854,11 +876,13 @@
       <c r="F9" s="3">
         <v>0.21</v>
       </c>
-      <c r="G9" s="4"/>
+      <c r="G9" s="4">
+        <v>5</v>
+      </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>16</v>
@@ -875,11 +899,13 @@
       <c r="F10" s="3">
         <v>0.14000000000000001</v>
       </c>
-      <c r="G10" s="4"/>
+      <c r="G10" s="4">
+        <v>5</v>
+      </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>18</v>
@@ -896,11 +922,13 @@
       <c r="F11" s="3">
         <v>0.11</v>
       </c>
-      <c r="G11" s="4"/>
+      <c r="G11" s="4">
+        <v>5</v>
+      </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>20</v>
@@ -917,11 +945,13 @@
       <c r="F12" s="3">
         <v>0.14000000000000001</v>
       </c>
-      <c r="G12" s="4"/>
+      <c r="G12" s="4">
+        <v>5</v>
+      </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>22</v>
@@ -938,11 +968,13 @@
       <c r="F13" s="3">
         <v>0.13</v>
       </c>
-      <c r="G13" s="4"/>
+      <c r="G13" s="4">
+        <v>9600</v>
+      </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>24</v>
@@ -959,11 +991,13 @@
       <c r="F14" s="3">
         <v>0.06</v>
       </c>
-      <c r="G14" s="4"/>
+      <c r="G14" s="4">
+        <v>6400</v>
+      </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>64</v>
@@ -980,11 +1014,13 @@
       <c r="F15" s="3">
         <v>0.06</v>
       </c>
-      <c r="G15" s="4"/>
+      <c r="G15" s="4">
+        <v>2513</v>
+      </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>27</v>
@@ -1001,11 +1037,13 @@
       <c r="F16" s="3">
         <v>0.06</v>
       </c>
-      <c r="G16" s="4"/>
+      <c r="G16" s="4">
+        <v>3200</v>
+      </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>29</v>
@@ -1022,11 +1060,13 @@
       <c r="F17" s="3">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="G17" s="4"/>
+      <c r="G17" s="4">
+        <v>6400</v>
+      </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>31</v>
@@ -1043,11 +1083,13 @@
       <c r="F18" s="3">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="G18" s="4"/>
+      <c r="G18" s="4">
+        <v>9600</v>
+      </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>31</v>
@@ -1064,11 +1106,13 @@
       <c r="F19" s="3">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="G19" s="4"/>
+      <c r="G19" s="4">
+        <v>6400</v>
+      </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>31</v>
@@ -1085,11 +1129,13 @@
       <c r="F20" s="3">
         <v>0.11</v>
       </c>
-      <c r="G20" s="4"/>
+      <c r="G20" s="4">
+        <v>12800</v>
+      </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>35</v>
@@ -1106,11 +1152,13 @@
       <c r="F21" s="3">
         <v>0.28999999999999998</v>
       </c>
-      <c r="G21" s="4"/>
+      <c r="G21" s="4">
+        <v>32000</v>
+      </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>37</v>
@@ -1127,11 +1175,13 @@
       <c r="F22" s="3">
         <v>0.17</v>
       </c>
-      <c r="G22" s="4"/>
+      <c r="G22" s="4">
+        <v>5</v>
+      </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>39</v>
@@ -1148,11 +1198,13 @@
       <c r="F23" s="3">
         <v>0.13</v>
       </c>
-      <c r="G23" s="4"/>
+      <c r="G23" s="4">
+        <v>28800</v>
+      </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>41</v>
@@ -1169,11 +1221,13 @@
       <c r="F24" s="3">
         <v>0.14000000000000001</v>
       </c>
-      <c r="G24" s="4"/>
+      <c r="G24" s="4">
+        <v>5</v>
+      </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>43</v>
@@ -1190,11 +1244,13 @@
       <c r="F25" s="3">
         <v>0.18</v>
       </c>
-      <c r="G25" s="4"/>
+      <c r="G25" s="4">
+        <v>38400</v>
+      </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>45</v>
@@ -1211,11 +1267,13 @@
       <c r="F26" s="3">
         <v>0.15</v>
       </c>
-      <c r="G26" s="4"/>
+      <c r="G26" s="4">
+        <v>5</v>
+      </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>47</v>
@@ -1232,11 +1290,13 @@
       <c r="F27" s="3">
         <v>0.11</v>
       </c>
-      <c r="G27" s="4"/>
+      <c r="G27" s="4">
+        <v>5</v>
+      </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>49</v>
@@ -1253,11 +1313,13 @@
       <c r="F28" s="3">
         <v>0.13</v>
       </c>
-      <c r="G28" s="4"/>
+      <c r="G28" s="4">
+        <v>5</v>
+      </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>51</v>
@@ -1274,11 +1336,13 @@
       <c r="F29" s="3">
         <v>0.13</v>
       </c>
-      <c r="G29" s="4"/>
+      <c r="G29" s="4">
+        <v>5</v>
+      </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>53</v>
@@ -1295,11 +1359,13 @@
       <c r="F30" s="3">
         <v>0.1</v>
       </c>
-      <c r="G30" s="4"/>
+      <c r="G30" s="4">
+        <v>6400</v>
+      </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>53</v>
@@ -1316,11 +1382,13 @@
       <c r="F31" s="3">
         <v>0.13</v>
       </c>
-      <c r="G31" s="4"/>
+      <c r="G31" s="4">
+        <v>12800</v>
+      </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>53</v>
@@ -1337,11 +1405,13 @@
       <c r="F32" s="3">
         <v>0.08</v>
       </c>
-      <c r="G32" s="4"/>
+      <c r="G32" s="4">
+        <v>12800</v>
+      </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>57</v>
@@ -1358,11 +1428,13 @@
       <c r="F33" s="3">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="G33" s="4"/>
+      <c r="G33" s="4">
+        <v>9600</v>
+      </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>57</v>
@@ -1379,10 +1451,13 @@
       <c r="F34" s="3">
         <v>0.11</v>
       </c>
+      <c r="G34" s="4">
+        <v>19200</v>
+      </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>14</v>
@@ -1398,6 +1473,9 @@
       </c>
       <c r="F35" s="3">
         <v>0.38</v>
+      </c>
+      <c r="G35" s="4">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
